--- a/SQL ETL/Data to Load/Data to load.xlsx
+++ b/SQL ETL/Data to Load/Data to load.xlsx
@@ -770,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52:J429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,7 +912,7 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -1019,7 +1019,7 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -1126,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1233,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -1340,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="K9">
         <v>4</v>
@@ -1768,7 +1768,7 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1875,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="K11">
         <v>4</v>
@@ -1982,7 +1982,7 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="K13">
         <v>5</v>
@@ -2196,7 +2196,7 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -2303,7 +2303,7 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="K15">
         <v>4</v>
@@ -2410,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -2517,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -2624,7 +2624,7 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -2731,7 +2731,7 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -2838,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="K20">
         <v>4</v>
@@ -2945,7 +2945,7 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -3159,7 +3159,7 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="K23">
         <v>4</v>
@@ -3266,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -3373,7 +3373,7 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -3480,7 +3480,7 @@
         <v>1</v>
       </c>
       <c r="J26">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -3587,7 +3587,7 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -3694,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="J28">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -3801,7 +3801,7 @@
         <v>1</v>
       </c>
       <c r="J29">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="K29">
         <v>4</v>
@@ -3908,7 +3908,7 @@
         <v>1</v>
       </c>
       <c r="J30">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -4015,7 +4015,7 @@
         <v>1</v>
       </c>
       <c r="J31">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -4122,7 +4122,7 @@
         <v>1</v>
       </c>
       <c r="J32">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -4229,7 +4229,7 @@
         <v>1</v>
       </c>
       <c r="J33">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="K33">
         <v>5</v>
@@ -4336,7 +4336,7 @@
         <v>1</v>
       </c>
       <c r="J34">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -4443,7 +4443,7 @@
         <v>1</v>
       </c>
       <c r="J35">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="J36">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="K36">
         <v>4</v>
@@ -4657,7 +4657,7 @@
         <v>1</v>
       </c>
       <c r="J37">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -4764,7 +4764,7 @@
         <v>1</v>
       </c>
       <c r="J38">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="K38">
         <v>3</v>
@@ -4871,7 +4871,7 @@
         <v>1</v>
       </c>
       <c r="J39">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="K39">
         <v>4</v>
@@ -4978,7 +4978,7 @@
         <v>1</v>
       </c>
       <c r="J40">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -5085,7 +5085,7 @@
         <v>1</v>
       </c>
       <c r="J41">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="K41">
         <v>5</v>
@@ -5192,7 +5192,7 @@
         <v>1</v>
       </c>
       <c r="J42">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="K42">
         <v>3</v>
@@ -5299,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="J43">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -5406,7 +5406,7 @@
         <v>1</v>
       </c>
       <c r="J44">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="K44">
         <v>3</v>
@@ -5513,7 +5513,7 @@
         <v>1</v>
       </c>
       <c r="J45">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="K45">
         <v>5</v>
@@ -5620,7 +5620,7 @@
         <v>1</v>
       </c>
       <c r="J46">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -5727,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="J47">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -5834,7 +5834,7 @@
         <v>1</v>
       </c>
       <c r="J48">
-        <v>47</v>
+        <v>187</v>
       </c>
       <c r="K48">
         <v>3</v>
@@ -5941,7 +5941,7 @@
         <v>1</v>
       </c>
       <c r="J49">
-        <v>48</v>
+        <v>188</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -6048,7 +6048,7 @@
         <v>1</v>
       </c>
       <c r="J50">
-        <v>49</v>
+        <v>189</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -6155,7 +6155,7 @@
         <v>1</v>
       </c>
       <c r="J51">
-        <v>50</v>
+        <v>191</v>
       </c>
       <c r="K51">
         <v>1</v>
